--- a/practica_excel.xlsx
+++ b/practica_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOCS\Analista\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEF4E3A-7B3A-4A86-BB96-7E6B60838DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC004058-0286-477D-BD97-3A49747608C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="3520" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{DF3BD8EC-D337-4747-9CC4-29C8A4A2AA39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{DF3BD8EC-D337-4747-9CC4-29C8A4A2AA39}"/>
   </bookViews>
   <sheets>
     <sheet name="sumar.si.conjunto" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Formcondicional" sheetId="8" r:id="rId7"/>
     <sheet name="F_encontrar,izuiqerda,derecha" sheetId="9" r:id="rId8"/>
     <sheet name="extraer" sheetId="11" r:id="rId9"/>
+    <sheet name="unir_cadenas" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="a">'contar.si.conjunto'!$A$3:$A$19</definedName>
@@ -48,8 +49,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="108">
   <si>
     <t>compras</t>
   </si>
@@ -355,6 +378,24 @@
   </si>
   <si>
     <t>apellidos</t>
+  </si>
+  <si>
+    <t>identifficacion</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>cuentas</t>
+  </si>
+  <si>
+    <t>henry</t>
+  </si>
+  <si>
+    <t>esteban</t>
+  </si>
+  <si>
+    <t>sierra</t>
   </si>
 </sst>
 </file>
@@ -364,7 +405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +440,16 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -650,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -673,51 +724,26 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="61">
     <dxf>
       <font>
         <b val="0"/>
@@ -797,29 +823,117 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -912,50 +1026,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1134,7 +1204,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1223,50 +1292,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2278,20 +2304,16 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DC69750-22BA-40AB-AEAC-F8B4603413BE}" name="compras" displayName="compras" ref="B2:E20" totalsRowShown="0">
   <autoFilter ref="B2:E20" xr:uid="{3DC69750-22BA-40AB-AEAC-F8B4603413BE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0C9E3D74-C321-401A-BD77-583BB0BDDCA9}" name="clientes"/>
-    <tableColumn id="2" xr3:uid="{D2C8B16D-8347-4DE6-BBF7-90D63FA135CB}" name="compras" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{9292524D-4C7E-48B6-A0FB-E811E3367B7C}" name="descuento" dataDxfId="61">
+    <tableColumn id="2" xr3:uid="{D2C8B16D-8347-4DE6-BBF7-90D63FA135CB}" name="compras" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{9292524D-4C7E-48B6-A0FB-E811E3367B7C}" name="descuento" dataDxfId="59">
       <calculatedColumnFormula>+IF(compras[[#This Row],[compras]]&gt;=400,compras[[#This Row],[compras]]*10%,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6FC777EC-572F-4626-BE62-1431FB01D845}" name="total" dataDxfId="60">
+    <tableColumn id="4" xr3:uid="{6FC777EC-572F-4626-BE62-1431FB01D845}" name="total" dataDxfId="58">
       <calculatedColumnFormula>+compras[[#This Row],[compras]]-compras[[#This Row],[descuento]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2303,11 +2325,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CBE640A6-CC78-4F66-B95D-14216EDC45C1}" name="Tabla13" displayName="Tabla13" ref="A10:E14" totalsRowShown="0">
   <autoFilter ref="A10:E14" xr:uid="{CBE640A6-CC78-4F66-B95D-14216EDC45C1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{71B178B0-9A8C-4BC5-A2DB-208E8F1CAF38}" name="vendedor" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{F33A6AE7-E137-4837-9496-5023B9801376}" name="dia1" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{B0327504-661F-4963-A871-E9DD96B86400}" name="dia2" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{DC29C791-C4A8-4528-979F-3320CDF66716}" name="dia3" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{92CF6382-28A6-4A77-9C56-CC313B2191AA}" name="rendimiento" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{71B178B0-9A8C-4BC5-A2DB-208E8F1CAF38}" name="vendedor" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{F33A6AE7-E137-4837-9496-5023B9801376}" name="dia1" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{B0327504-661F-4963-A871-E9DD96B86400}" name="dia2" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{DC29C791-C4A8-4528-979F-3320CDF66716}" name="dia3" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{92CF6382-28A6-4A77-9C56-CC313B2191AA}" name="rendimiento" dataDxfId="24">
       <calculatedColumnFormula>+IF(AND(Tabla13[[#This Row],[dia1]]&gt;=500,Tabla13[[#This Row],[dia2]]&gt;=500,Tabla13[[#This Row],[dia3]]&gt;=500),"excelente","necesita mejorar")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2319,8 +2341,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{47209427-5F76-4ABB-B311-0FD8A3B7200F}" name="Tabla15" displayName="Tabla15" ref="G11:H13" totalsRowShown="0">
   <autoFilter ref="G11:H13" xr:uid="{47209427-5F76-4ABB-B311-0FD8A3B7200F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A30E2F87-0FD1-48E6-B2E9-6FB10E79045A}" name="ventas" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{7574D869-F9C6-4BF6-BBE2-CAEDC7CCD1A4}" name="renidmiento" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{A30E2F87-0FD1-48E6-B2E9-6FB10E79045A}" name="ventas" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{7574D869-F9C6-4BF6-BBE2-CAEDC7CCD1A4}" name="renidmiento" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2330,11 +2352,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{CD308D53-1ADB-4509-98B7-BB92C71FDBB7}" name="Tabla1317" displayName="Tabla1317" ref="A18:E22" totalsRowShown="0">
   <autoFilter ref="A18:E22" xr:uid="{CD308D53-1ADB-4509-98B7-BB92C71FDBB7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{832B511B-9383-42D6-ACE3-8F2DB2D7DD66}" name="vendedor" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{3963B190-AD50-46D9-BBA1-F0B1E7A005F0}" name="dia1" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{4AF38273-71BB-4F04-A5A8-71ECEDE824BA}" name="dia2" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{4FC74877-65CD-4AFC-8A28-5C97D3A985CF}" name="dia3" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{E571F1C5-6D13-46B9-A086-6C39560545C0}" name="rendimiento" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{832B511B-9383-42D6-ACE3-8F2DB2D7DD66}" name="vendedor" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{3963B190-AD50-46D9-BBA1-F0B1E7A005F0}" name="dia1" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{4AF38273-71BB-4F04-A5A8-71ECEDE824BA}" name="dia2" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{4FC74877-65CD-4AFC-8A28-5C97D3A985CF}" name="dia3" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{E571F1C5-6D13-46B9-A086-6C39560545C0}" name="rendimiento" dataDxfId="17">
       <calculatedColumnFormula>+IF(OR(Tabla1317[[#This Row],[dia1]]&gt;=500,Tabla1317[[#This Row],[dia2]]&gt;=500,Tabla1317[[#This Row],[dia3]]&gt;=500),"excelente","necesita mejorar")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2346,8 +2368,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{9CC67640-31BD-43D7-8225-A67AB313FB56}" name="Tabla1518" displayName="Tabla1518" ref="G18:H20" totalsRowShown="0">
   <autoFilter ref="G18:H20" xr:uid="{9CC67640-31BD-43D7-8225-A67AB313FB56}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2E892597-9F71-401E-B312-8E87C5665207}" name="ventas" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{AFAD476C-3C33-4821-8075-0F73CD6133F9}" name="renidmiento" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{2E892597-9F71-401E-B312-8E87C5665207}" name="ventas" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{AFAD476C-3C33-4821-8075-0F73CD6133F9}" name="renidmiento" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2357,8 +2379,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2CEE72EC-81C5-47E0-8F49-F6352CCC4E37}" name="Tabla18" displayName="Tabla18" ref="A4:C10" totalsRowShown="0">
   <autoFilter ref="A4:C10" xr:uid="{2CEE72EC-81C5-47E0-8F49-F6352CCC4E37}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{85EC5297-763C-41E3-8952-D78C7FA556D6}" name="vendedor" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{8F703ABB-8D73-40F8-B816-D0EFFBDEF41F}" name="ventas" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{85EC5297-763C-41E3-8952-D78C7FA556D6}" name="vendedor" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{8F703ABB-8D73-40F8-B816-D0EFFBDEF41F}" name="ventas" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{56AF335A-A511-421F-9A3B-4ED0EFEDE43D}" name="comision" dataDxfId="12">
       <calculatedColumnFormula>+IF(Tabla18[[#This Row],[ventas]]&gt;=500,300,IF(Tabla18[[#This Row],[ventas]]&gt;=300,200,IF(Tabla18[[#This Row],[ventas]]&lt;300,"NECESITA MEJORAR","NADA")))</calculatedColumnFormula>
     </tableColumn>
@@ -2371,8 +2393,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{3B67B4E8-0B64-449D-BE6F-B4C3ADEC198E}" name="Tabla19" displayName="Tabla19" ref="E4:F7" totalsRowShown="0">
   <autoFilter ref="E4:F7" xr:uid="{3B67B4E8-0B64-449D-BE6F-B4C3ADEC198E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5E08EB6B-3D42-4998-979C-07763929FAA1}" name="venta" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{DD39A002-BC63-4CB6-8181-A67BB759AD73}" name="comision" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{5E08EB6B-3D42-4998-979C-07763929FAA1}" name="venta" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{DD39A002-BC63-4CB6-8181-A67BB759AD73}" name="comision" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2382,9 +2404,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{E08286B6-B644-4421-9C75-C8F8E3EF7B76}" name="Tabla20" displayName="Tabla20" ref="A13:C20" totalsRowShown="0">
   <autoFilter ref="A13:C20" xr:uid="{E08286B6-B644-4421-9C75-C8F8E3EF7B76}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2613AB83-78B0-440A-B6DD-0CC810EDE664}" name="ESTUDIANTES" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{FDA1E2C4-E37C-4730-9CB6-D46F7C8A9AE3}" name="NOTA" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E0F287B3-6A29-496F-BD1F-C286B056EEE1}" name="ESTADO" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{2613AB83-78B0-440A-B6DD-0CC810EDE664}" name="ESTUDIANTES" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FDA1E2C4-E37C-4730-9CB6-D46F7C8A9AE3}" name="NOTA" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{E0F287B3-6A29-496F-BD1F-C286B056EEE1}" name="ESTADO" dataDxfId="7">
       <calculatedColumnFormula>+IF(Tabla20[[#This Row],[NOTA]]&lt;=4,"DEFICIENTE",IF(Tabla20[[#This Row],[NOTA]]&lt;=6,"ACEPTABLE",IF(Tabla20[[#This Row],[NOTA]]&lt;=8,"SOBRESALIENTE",IF(Tabla20[[#This Row],[NOTA]]&lt;=10,"EXCELENTE","INVALIDA"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2396,44 +2418,67 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{0D8B32DC-2419-45F4-971F-0A1B21E0207A}" name="Tabla21" displayName="Tabla21" ref="E13:H14" totalsRowShown="0">
   <autoFilter ref="E13:H14" xr:uid="{0D8B32DC-2419-45F4-971F-0A1B21E0207A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{43C8344A-4EB1-4B04-8B03-DD2204AA4151}" name="DEFICIENTE" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{77ED06B4-635A-43FE-B044-CA0F240461D1}" name="ACEPTABLE" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{0FB21E10-ACDB-4FDB-998D-E8AE4B0B6B4F}" name="SOBRESALIENTE" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{6CEB5248-7032-459C-BA60-68A4DEB5F897}" name="EXCELENTE" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{43C8344A-4EB1-4B04-8B03-DD2204AA4151}" name="DEFICIENTE" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{77ED06B4-635A-43FE-B044-CA0F240461D1}" name="ACEPTABLE" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0FB21E10-ACDB-4FDB-998D-E8AE4B0B6B4F}" name="SOBRESALIENTE" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{6CEB5248-7032-459C-BA60-68A4DEB5F897}" name="EXCELENTE" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{93F5346B-3998-4604-8607-C48C3033E487}" name="Tabla22" displayName="Tabla22" ref="A1:B19" totalsRowShown="0" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{93F5346B-3998-4604-8607-C48C3033E487}" name="Tabla22" displayName="Tabla22" ref="A1:B19" totalsRowShown="0" tableBorderDxfId="2">
   <autoFilter ref="A1:B19" xr:uid="{93F5346B-3998-4604-8607-C48C3033E487}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{43EDE066-1C45-46D2-84E6-29C8A3CBE20C}" name="vendedor" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{CEB4B614-D29D-4BD3-AC1F-B39E0203EEEB}" name="ventas" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{43EDE066-1C45-46D2-84E6-29C8A3CBE20C}" name="vendedor" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CEB4B614-D29D-4BD3-AC1F-B39E0203EEEB}" name="ventas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0ED00CBB-4235-4136-91F6-85BD34947C02}" name="Tabla10" displayName="Tabla10" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11" xr:uid="{0ED00CBB-4235-4136-91F6-85BD34947C02}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0F8FD9CD-7677-46CC-B800-D5921CB95BA1}" name="identifficacion"/>
+    <tableColumn id="2" xr3:uid="{D51E29B2-6D9B-4F28-8FAA-B092BBC26D05}" name="nombre"/>
+    <tableColumn id="3" xr3:uid="{304007E8-2DC5-4535-99D8-CAC3DD1CCB67}" name="cuentas"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC170394-B0FB-4284-8035-4CB554628CE0}" name="Tabla2" displayName="Tabla2" ref="G2:H5" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DC170394-B0FB-4284-8035-4CB554628CE0}" name="Tabla2" displayName="Tabla2" ref="G2:H5" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55" totalsRowBorderDxfId="54">
   <autoFilter ref="G2:H5" xr:uid="{DC170394-B0FB-4284-8035-4CB554628CE0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F80B4CAD-8078-4AD9-97BC-06B6A80C3CB0}" name="CLIENTES" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{142803FF-3C45-400A-B243-DD9223E13676}" name="TOTAL" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{F80B4CAD-8078-4AD9-97BC-06B6A80C3CB0}" name="CLIENTES" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{142803FF-3C45-400A-B243-DD9223E13676}" name="TOTAL" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6F0A41C9-21B0-4E9E-BC42-7E69E64BEFB5}" name="Tabla11" displayName="Tabla11" ref="A14:B17" totalsRowShown="0">
+  <autoFilter ref="A14:B17" xr:uid="{6F0A41C9-21B0-4E9E-BC42-7E69E64BEFB5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CA28096E-7E9F-462D-9731-683310947DEC}" name="identifficacion"/>
+    <tableColumn id="2" xr3:uid="{00666924-67D2-4999-987C-3166D6D0B8E6}" name="nombre"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{216C262E-B1F8-42F1-BB64-FF100656FFDD}" name="Tabla3" displayName="Tabla3" ref="G9:I10" totalsRowShown="0" headerRowBorderDxfId="53" tableBorderDxfId="52" totalsRowBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{216C262E-B1F8-42F1-BB64-FF100656FFDD}" name="Tabla3" displayName="Tabla3" ref="G9:I10" totalsRowShown="0" headerRowBorderDxfId="51" tableBorderDxfId="50" totalsRowBorderDxfId="49">
   <autoFilter ref="G9:I10" xr:uid="{216C262E-B1F8-42F1-BB64-FF100656FFDD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4D76D01F-DA49-4D0D-B546-B1CB56B44D2E}" name="fecha" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{4490C38A-FBB2-4690-977D-D69460E4A0F3}" name="fecha2" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{F6905E9F-CA0F-4F48-BA4B-AAD166A47AAE}" name="total" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{4D76D01F-DA49-4D0D-B546-B1CB56B44D2E}" name="fecha" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{4490C38A-FBB2-4690-977D-D69460E4A0F3}" name="fecha2" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{F6905E9F-CA0F-4F48-BA4B-AAD166A47AAE}" name="total" dataDxfId="46">
       <calculatedColumnFormula>+SUMIFS(compras[total],A3:A20,"&gt;="&amp;G10,compras[total],"&lt;="&amp;H10)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2442,11 +2487,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C6160253-4F21-470C-8936-F0900A3A6DD5}" name="Tabla4" displayName="Tabla4" ref="G13:H14" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C6160253-4F21-470C-8936-F0900A3A6DD5}" name="Tabla4" displayName="Tabla4" ref="G13:H14" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
   <autoFilter ref="G13:H14" xr:uid="{C6160253-4F21-470C-8936-F0900A3A6DD5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9B392454-41ED-40AA-8C30-26A88240608A}" name="fecha" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{5E3EE49F-1F0A-4B69-8868-3BEF72E4FD60}" name="total" dataDxfId="42">
+    <tableColumn id="1" xr3:uid="{9B392454-41ED-40AA-8C30-26A88240608A}" name="fecha" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{5E3EE49F-1F0A-4B69-8868-3BEF72E4FD60}" name="total" dataDxfId="40">
       <calculatedColumnFormula>+SUMIF(A3:A20,"&gt;="&amp;A12,compras[total])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2461,9 +2506,9 @@
     <sortCondition ref="C1:C19"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A60CB7E6-D0B3-4A1C-87E9-464DF1D38446}" name="cliente" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{9DC8B395-CA23-4AED-9C0F-37D60DA33B06}" name="Prestamo" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{EB006E1A-26A0-4C9D-8A07-0DFD54C9E4C7}" name="Estatus" totalsRowDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{A60CB7E6-D0B3-4A1C-87E9-464DF1D38446}" name="cliente" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{9DC8B395-CA23-4AED-9C0F-37D60DA33B06}" name="Prestamo" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{EB006E1A-26A0-4C9D-8A07-0DFD54C9E4C7}" name="Estatus" totalsRowDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2474,7 +2519,7 @@
   <autoFilter ref="E2:F4" xr:uid="{7B07AEC2-044B-4D69-B478-F70464380159}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{10CB853E-0570-4325-AC82-C880CBA97A08}" name="Resumen"/>
-    <tableColumn id="2" xr3:uid="{AD0AFB25-2208-4AC4-856D-A354BEFDADDB}" name="Estatus" dataDxfId="36">
+    <tableColumn id="2" xr3:uid="{AD0AFB25-2208-4AC4-856D-A354BEFDADDB}" name="Estatus" dataDxfId="34">
       <calculatedColumnFormula>+COUNTIF(Tabla5[Estatus],C7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2483,7 +2528,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F190DA5C-EF91-4A85-AFD2-F4E2AE47087E}" name="Tabla7" displayName="Tabla7" ref="E6:F8" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F190DA5C-EF91-4A85-AFD2-F4E2AE47087E}" name="Tabla7" displayName="Tabla7" ref="E6:F8" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="E6:F8" xr:uid="{F190DA5C-EF91-4A85-AFD2-F4E2AE47087E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D9DBE542-8AA5-4662-86D2-689185229CED}" name="Resumen"/>
@@ -2501,7 +2546,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BBAC1160-5FD8-4673-8A2F-AA5FCA7C85F8}" name="vendedor"/>
     <tableColumn id="2" xr3:uid="{8531361C-A683-43CA-9AE3-1D85471A2F6D}" name="productos"/>
-    <tableColumn id="3" xr3:uid="{6227B1BC-44C5-4AD3-BEFB-5DA0E8022920}" name="ventas" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{6227B1BC-44C5-4AD3-BEFB-5DA0E8022920}" name="ventas" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2513,7 +2558,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E971B644-E486-455E-AE00-6717AB59211D}" name="vendedor"/>
     <tableColumn id="2" xr3:uid="{FC97931A-3101-4CEA-AE55-68D4EFFF292A}" name="productos"/>
-    <tableColumn id="3" xr3:uid="{5347CA6E-E1F1-4F52-B436-34A2D2E4C304}" name="ventas" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{5347CA6E-E1F1-4F52-B436-34A2D2E4C304}" name="ventas" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3277,6 +3322,242 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C11822-93E6-430A-BA95-7E213A4D007D}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2">
+        <v>1111</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="F2" s="33" t="str" cm="1">
+        <f t="array" ref="F2">+_xlfn.TEXTJOIN(" ",TRUE,IF($A$2:$A$11=A2, $B$2:$B$11, ""))</f>
+        <v>henry henry henry henry</v>
+      </c>
+      <c r="I2" t="str" cm="1">
+        <f t="array" ref="I2">+_xlfn.TEXTJOIN(" ",TRUE,IF($B$2:$B$11=B2,$C$2:$C$11," "))</f>
+        <v xml:space="preserve">1111 1112 1113 1114            </v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1234</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>1112</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="I3" t="str" cm="1">
+        <f t="array" ref="I3">+_xlfn.TEXTJOIN(" ",TRUE,IF($B$2:$B$11=B3,$C$2:$C$11," "))</f>
+        <v xml:space="preserve">1111 1112 1113 1114            </v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>1113</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="I4" t="str" cm="1">
+        <f t="array" ref="I4">+_xlfn.TEXTJOIN(" ",TRUE,IF($B$2:$B$11=B4,$C$2:$C$11," "))</f>
+        <v xml:space="preserve">1111 1112 1113 1114            </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5">
+        <v>1114</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="I5" t="str" cm="1">
+        <f t="array" ref="I5">+_xlfn.TEXTJOIN(" ",TRUE,IF($B$2:$B$11=B5,$C$2:$C$11," "))</f>
+        <v xml:space="preserve">1111 1112 1113 1114            </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4567</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6">
+        <v>2221</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="I6" t="str" cm="1">
+        <f t="array" ref="I6">+_xlfn.TEXTJOIN(" ",TRUE,IF($B$2:$B$11=B6,$C$2:$C$11," "))</f>
+        <v xml:space="preserve">        2221 2222 2223      </v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4567</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7">
+        <v>2222</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="I7" t="str" cm="1">
+        <f t="array" ref="I7">+_xlfn.TEXTJOIN(" ",TRUE,IF($B$2:$B$11=B7,$C$2:$C$11," "))</f>
+        <v xml:space="preserve">        2221 2222 2223      </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4567</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>2223</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="I8" t="str" cm="1">
+        <f t="array" ref="I8">+_xlfn.TEXTJOIN(" ",TRUE,IF($B$2:$B$11=B8,$C$2:$C$11," "))</f>
+        <v xml:space="preserve">        2221 2222 2223      </v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8910</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9">
+        <v>4441</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="I9" t="str" cm="1">
+        <f t="array" ref="I9">+_xlfn.TEXTJOIN(" ",TRUE,IF($B$2:$B$11=B9,$C$2:$C$11," "))</f>
+        <v xml:space="preserve">              4441 4442 4443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8910</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10">
+        <v>4442</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="I10" t="str" cm="1">
+        <f t="array" ref="I10">+_xlfn.TEXTJOIN(" ",TRUE,IF($B$2:$B$11=B10,$C$2:$C$11," "))</f>
+        <v xml:space="preserve">              4441 4442 4443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8910</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11">
+        <v>4443</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="I11" t="str" cm="1">
+        <f t="array" ref="I11">+_xlfn.TEXTJOIN(" ",TRUE,IF($B$2:$B$11=B11,$C$2:$C$11," "))</f>
+        <v xml:space="preserve">              4441 4442 4443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" t="str" cm="1">
+        <f t="array" ref="I12">+_xlfn.TEXTJOIN(" ",TRUE,IF($A$2:$A$11=C12,B12:B21," "))</f>
+        <v xml:space="preserve">                   </v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4567</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8910</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF792ACA-891F-4690-88CD-3B1ED07A864A}">
   <dimension ref="A1:F19"/>
@@ -4173,7 +4454,7 @@
         <f>+AND(A3:C3)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4191,7 +4472,7 @@
         <f>+AND(A4:C4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4209,7 +4490,7 @@
         <f>OR(A5:C5)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4227,18 +4508,18 @@
         <f>OR(A6:C6)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -4256,10 +4537,10 @@
       <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -4352,17 +4633,17 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="G17" s="25" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="G17" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="25"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -4508,15 +4789,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="E3" s="25" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="E3" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4602,41 +4883,41 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="23">
         <v>345</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="23">
         <f>+IF(Tabla18[[#This Row],[ventas]]&gt;=500,300,IF(Tabla18[[#This Row],[ventas]]&gt;=300,200,IF(Tabla18[[#This Row],[ventas]]&lt;300,"NECESITA MEJORAR","NADA")))</f>
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="23">
         <v>600</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="23">
         <f>+IF(Tabla18[[#This Row],[ventas]]&gt;=500,300,IF(Tabla18[[#This Row],[ventas]]&gt;=300,200,IF(Tabla18[[#This Row],[ventas]]&lt;300,"NECESITA MEJORAR","NADA")))</f>
         <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="E12" s="25" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="E12" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -4662,10 +4943,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="6">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="str">
@@ -4686,10 +4967,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="6">
         <v>10</v>
       </c>
       <c r="C15" s="6" t="str">
@@ -4698,10 +4979,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="6">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="str">
@@ -4710,10 +4991,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="6">
         <v>7</v>
       </c>
       <c r="C17" s="6" t="str">
@@ -4722,10 +5003,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="6">
         <v>4</v>
       </c>
       <c r="C18" s="6" t="str">
@@ -4734,10 +5015,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="6">
         <v>10</v>
       </c>
       <c r="C19" s="6" t="str">
@@ -4746,13 +5027,13 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="23">
         <v>12</v>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="23" t="str">
         <f>+IF(Tabla20[[#This Row],[NOTA]]&lt;=4,"DEFICIENTE",IF(Tabla20[[#This Row],[NOTA]]&lt;=6,"ACEPTABLE",IF(Tabla20[[#This Row],[NOTA]]&lt;=8,"SOBRESALIENTE",IF(Tabla20[[#This Row],[NOTA]]&lt;=10,"EXCELENTE","INVALIDA"))))</f>
         <v>INVALIDA</v>
       </c>
@@ -4805,146 +5086,146 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="24">
         <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="24">
         <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="24">
         <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="25">
         <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="24">
         <v>745.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="25">
         <v>958</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="24">
         <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="24">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="24">
         <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="25">
         <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="24">
         <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="24">
         <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="24">
         <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="25">
         <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="24">
         <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="25">
         <v>820.4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="24">
         <v>866</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="27">
         <v>934</v>
       </c>
     </row>
@@ -4971,10 +5252,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="29" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4987,7 +5268,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="28" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4998,7 +5279,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="28" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5009,7 +5290,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="28" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5028,7 +5309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C090F832-7656-4E4B-8DC5-36FACC345746}">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
@@ -5038,13 +5319,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="30" t="s">
         <v>101</v>
       </c>
     </row>
